--- a/biology/Botanique/Épinette_d'Engelmann/Épinette_d'Engelmann.xlsx
+++ b/biology/Botanique/Épinette_d'Engelmann/Épinette_d'Engelmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pinette_d%27Engelmann</t>
+          <t>Épinette_d'Engelmann</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Picea engelmannii
-L’épinette d'Engelmann ou épicéa d'Engelmann (Picea engelmannii) est un arbre résineux de la famille des Pinaceae et du genre Picea[1].
+L’épinette d'Engelmann ou épicéa d'Engelmann (Picea engelmannii) est un arbre résineux de la famille des Pinaceae et du genre Picea.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pinette_d%27Engelmann</t>
+          <t>Épinette_d'Engelmann</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Habitat, répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’épinette d'Engelmann est originaire d'Amérique du Nord et en particulier des Montagnes Rocheuses (du Montana jusque l'Arizona[1]) ; il existe deux populations isolées dans le nord du Mexique. Il fut introduit en 1850 en Europe[1].
-C'est principalement un arbre des hautes montagnes qui résiste bien au gel, dans une zone allant de 1 500 à 3 000 m d'altitude[1], parfois plus bas dans le nord-est de sa répartition. Appréciant l'humidité, il pousse surtout le long des ruisseaux et des rivières[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’épinette d'Engelmann est originaire d'Amérique du Nord et en particulier des Montagnes Rocheuses (du Montana jusque l'Arizona) ; il existe deux populations isolées dans le nord du Mexique. Il fut introduit en 1850 en Europe.
+C'est principalement un arbre des hautes montagnes qui résiste bien au gel, dans une zone allant de 1 500 à 3 000 m d'altitude, parfois plus bas dans le nord-est de sa répartition. Appréciant l'humidité, il pousse surtout le long des ruisseaux et des rivières.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pinette_d%27Engelmann</t>
+          <t>Épinette_d'Engelmann</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’épinette d'Engelmann atteint une hauteur de 30 à 35 m[1] pour un tronc d'un diamètre maximum d'un mètre cinquante, mais certains sujets atteignent exceptionnellement 65 m de haut.
-L'écorce est brun-rouge et forme des écailles[1]. Les aiguilles sont vertes ou argentées, longues de 18 à 30 mm, rigides et pointues[1]. Ces aiguilles poussent tout autour du rameau. Les cônes mesurent de 6 à 10 cm et deviennent brun-jaunâtre avec des écailles ondulées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’épinette d'Engelmann atteint une hauteur de 30 à 35 m pour un tronc d'un diamètre maximum d'un mètre cinquante, mais certains sujets atteignent exceptionnellement 65 m de haut.
+L'écorce est brun-rouge et forme des écailles. Les aiguilles sont vertes ou argentées, longues de 18 à 30 mm, rigides et pointues. Ces aiguilles poussent tout autour du rameau. Les cônes mesurent de 6 à 10 cm et deviennent brun-jaunâtre avec des écailles ondulées.
 			Vue d'ensemble dans l'état du Colorado, États-Unis
 			Détail de l'implantation des aiguilles.
 			Détail de la section des aiguilles.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pinette_d%27Engelmann</t>
+          <t>Épinette_d'Engelmann</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b c d e f g h et i (fr) Arbres - Jaromir Pokorny - p.40 -  (ISBN 2-7000-1818-4) - Éditions Gründ - 1987
